--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -2,17 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="ContractType">Main!$F$2</definedName>
+    <definedName name="CrewName">Main!$C$2</definedName>
+    <definedName name="CrewNo">Main!$B$3</definedName>
+    <definedName name="HrsWk">Main!$G$2</definedName>
+    <definedName name="NoWeeks">Main!$H$2</definedName>
+    <definedName name="RevDate">Main!$I$2</definedName>
+    <definedName name="Role">Main!$D$2</definedName>
+    <definedName name="SlotStart">Main!$B$4</definedName>
+    <definedName name="TemplateDate">Main!$E$2</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>CrewNo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,18 +368,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="ShtFrontPage"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -373,6 +402,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -21,15 +21,20 @@
     <definedName name="Role">Main!$D$2</definedName>
     <definedName name="SlotStart">Main!$B$4</definedName>
     <definedName name="TemplateDate">Main!$E$2</definedName>
+    <definedName name="Week1">Main!$B$4:$AW$10</definedName>
+    <definedName name="Week2">Main!$B$12:$AW$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>CrewNo</t>
+    <t>Julian Turner</t>
+  </si>
+  <si>
+    <t>CM</t>
   </si>
 </sst>
 </file>
@@ -53,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -61,12 +66,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,18 +465,5586 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtFrontPage"/>
-  <dimension ref="B2"/>
+  <dimension ref="B2:AW98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="49" width="3.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42675</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>124</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1</v>
+      </c>
+      <c r="X10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
+      <c r="V17" s="7">
+        <v>1</v>
+      </c>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1</v>
+      </c>
+      <c r="T18" s="10">
+        <v>1</v>
+      </c>
+      <c r="U18" s="10">
+        <v>1</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
+        <v>1</v>
+      </c>
+      <c r="X18" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="5"/>
+    </row>
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="8"/>
+    </row>
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="8"/>
+    </row>
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="8"/>
+    </row>
+    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="8"/>
+    </row>
+    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="8"/>
+    </row>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="11"/>
+    </row>
+    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="5"/>
+    </row>
+    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="8"/>
+    </row>
+    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="8"/>
+    </row>
+    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="8"/>
+    </row>
+    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="8"/>
+    </row>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="8"/>
+    </row>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="11"/>
+    </row>
+    <row r="36" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="5"/>
+    </row>
+    <row r="37" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="8"/>
+    </row>
+    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="8"/>
+    </row>
+    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="8"/>
+    </row>
+    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="8"/>
+    </row>
+    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="8"/>
+    </row>
+    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="11"/>
+    </row>
+    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="5"/>
+    </row>
+    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="8"/>
+    </row>
+    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="8"/>
+    </row>
+    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="8"/>
+    </row>
+    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="8"/>
+    </row>
+    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="8"/>
+    </row>
+    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="11"/>
+    </row>
+    <row r="52" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="5"/>
+    </row>
+    <row r="53" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="8"/>
+    </row>
+    <row r="54" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="8"/>
+    </row>
+    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7"/>
+      <c r="AW55" s="8"/>
+    </row>
+    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="8"/>
+    </row>
+    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="8"/>
+    </row>
+    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="10"/>
+      <c r="AW58" s="11"/>
+    </row>
+    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+      <c r="AP60" s="4"/>
+      <c r="AQ60" s="4"/>
+      <c r="AR60" s="4"/>
+      <c r="AS60" s="4"/>
+      <c r="AT60" s="4"/>
+      <c r="AU60" s="4"/>
+      <c r="AV60" s="4"/>
+      <c r="AW60" s="5"/>
+    </row>
+    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="8"/>
+    </row>
+    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="8"/>
+    </row>
+    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+      <c r="AT63" s="7"/>
+      <c r="AU63" s="7"/>
+      <c r="AV63" s="7"/>
+      <c r="AW63" s="8"/>
+    </row>
+    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7"/>
+      <c r="AW64" s="8"/>
+    </row>
+    <row r="65" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7"/>
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="7"/>
+      <c r="AW65" s="8"/>
+    </row>
+    <row r="66" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="10"/>
+      <c r="AQ66" s="10"/>
+      <c r="AR66" s="10"/>
+      <c r="AS66" s="10"/>
+      <c r="AT66" s="10"/>
+      <c r="AU66" s="10"/>
+      <c r="AV66" s="10"/>
+      <c r="AW66" s="11"/>
+    </row>
+    <row r="68" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+      <c r="AR68" s="4"/>
+      <c r="AS68" s="4"/>
+      <c r="AT68" s="4"/>
+      <c r="AU68" s="4"/>
+      <c r="AV68" s="4"/>
+      <c r="AW68" s="5"/>
+    </row>
+    <row r="69" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+      <c r="AO69" s="7"/>
+      <c r="AP69" s="7"/>
+      <c r="AQ69" s="7"/>
+      <c r="AR69" s="7"/>
+      <c r="AS69" s="7"/>
+      <c r="AT69" s="7"/>
+      <c r="AU69" s="7"/>
+      <c r="AV69" s="7"/>
+      <c r="AW69" s="8"/>
+    </row>
+    <row r="70" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+      <c r="AO70" s="7"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7"/>
+      <c r="AT70" s="7"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="7"/>
+      <c r="AW70" s="8"/>
+    </row>
+    <row r="71" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="7"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+      <c r="AO71" s="7"/>
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7"/>
+      <c r="AT71" s="7"/>
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="7"/>
+      <c r="AW71" s="8"/>
+    </row>
+    <row r="72" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="7"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7"/>
+      <c r="AW72" s="8"/>
+    </row>
+    <row r="73" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="8"/>
+    </row>
+    <row r="74" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="10"/>
+      <c r="AO74" s="10"/>
+      <c r="AP74" s="10"/>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="10"/>
+      <c r="AS74" s="10"/>
+      <c r="AT74" s="10"/>
+      <c r="AU74" s="10"/>
+      <c r="AV74" s="10"/>
+      <c r="AW74" s="11"/>
+    </row>
+    <row r="76" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="4"/>
+      <c r="AS76" s="4"/>
+      <c r="AT76" s="4"/>
+      <c r="AU76" s="4"/>
+      <c r="AV76" s="4"/>
+      <c r="AW76" s="5"/>
+    </row>
+    <row r="77" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
+      <c r="AT77" s="7"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7"/>
+      <c r="AW77" s="8"/>
+    </row>
+    <row r="78" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="7"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7"/>
+      <c r="AW78" s="8"/>
+    </row>
+    <row r="79" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7"/>
+      <c r="AW79" s="8"/>
+    </row>
+    <row r="80" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+      <c r="AT80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="8"/>
+    </row>
+    <row r="81" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7"/>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7"/>
+      <c r="AT81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="7"/>
+      <c r="AW81" s="8"/>
+    </row>
+    <row r="82" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="10"/>
+      <c r="AH82" s="10"/>
+      <c r="AI82" s="10"/>
+      <c r="AJ82" s="10"/>
+      <c r="AK82" s="10"/>
+      <c r="AL82" s="10"/>
+      <c r="AM82" s="10"/>
+      <c r="AN82" s="10"/>
+      <c r="AO82" s="10"/>
+      <c r="AP82" s="10"/>
+      <c r="AQ82" s="10"/>
+      <c r="AR82" s="10"/>
+      <c r="AS82" s="10"/>
+      <c r="AT82" s="10"/>
+      <c r="AU82" s="10"/>
+      <c r="AV82" s="10"/>
+      <c r="AW82" s="11"/>
+    </row>
+    <row r="84" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="4"/>
+      <c r="AH84" s="4"/>
+      <c r="AI84" s="4"/>
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="4"/>
+      <c r="AL84" s="4"/>
+      <c r="AM84" s="4"/>
+      <c r="AN84" s="4"/>
+      <c r="AO84" s="4"/>
+      <c r="AP84" s="4"/>
+      <c r="AQ84" s="4"/>
+      <c r="AR84" s="4"/>
+      <c r="AS84" s="4"/>
+      <c r="AT84" s="4"/>
+      <c r="AU84" s="4"/>
+      <c r="AV84" s="4"/>
+      <c r="AW84" s="5"/>
+    </row>
+    <row r="85" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="7"/>
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="7"/>
+      <c r="AT85" s="7"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="7"/>
+      <c r="AW85" s="8"/>
+    </row>
+    <row r="86" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="7"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7"/>
+      <c r="AW86" s="8"/>
+    </row>
+    <row r="87" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7"/>
+      <c r="AW87" s="8"/>
+    </row>
+    <row r="88" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="8"/>
+    </row>
+    <row r="89" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
+      <c r="AS89" s="7"/>
+      <c r="AT89" s="7"/>
+      <c r="AU89" s="7"/>
+      <c r="AV89" s="7"/>
+      <c r="AW89" s="8"/>
+    </row>
+    <row r="90" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="10"/>
+      <c r="AH90" s="10"/>
+      <c r="AI90" s="10"/>
+      <c r="AJ90" s="10"/>
+      <c r="AK90" s="10"/>
+      <c r="AL90" s="10"/>
+      <c r="AM90" s="10"/>
+      <c r="AN90" s="10"/>
+      <c r="AO90" s="10"/>
+      <c r="AP90" s="10"/>
+      <c r="AQ90" s="10"/>
+      <c r="AR90" s="10"/>
+      <c r="AS90" s="10"/>
+      <c r="AT90" s="10"/>
+      <c r="AU90" s="10"/>
+      <c r="AV90" s="10"/>
+      <c r="AW90" s="11"/>
+    </row>
+    <row r="92" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
+      <c r="AI92" s="4"/>
+      <c r="AJ92" s="4"/>
+      <c r="AK92" s="4"/>
+      <c r="AL92" s="4"/>
+      <c r="AM92" s="4"/>
+      <c r="AN92" s="4"/>
+      <c r="AO92" s="4"/>
+      <c r="AP92" s="4"/>
+      <c r="AQ92" s="4"/>
+      <c r="AR92" s="4"/>
+      <c r="AS92" s="4"/>
+      <c r="AT92" s="4"/>
+      <c r="AU92" s="4"/>
+      <c r="AV92" s="4"/>
+      <c r="AW92" s="5"/>
+    </row>
+    <row r="93" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7"/>
+      <c r="AT93" s="7"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="7"/>
+      <c r="AW93" s="8"/>
+    </row>
+    <row r="94" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7"/>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+      <c r="AJ94" s="7"/>
+      <c r="AK94" s="7"/>
+      <c r="AL94" s="7"/>
+      <c r="AM94" s="7"/>
+      <c r="AN94" s="7"/>
+      <c r="AO94" s="7"/>
+      <c r="AP94" s="7"/>
+      <c r="AQ94" s="7"/>
+      <c r="AR94" s="7"/>
+      <c r="AS94" s="7"/>
+      <c r="AT94" s="7"/>
+      <c r="AU94" s="7"/>
+      <c r="AV94" s="7"/>
+      <c r="AW94" s="8"/>
+    </row>
+    <row r="95" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="7"/>
+      <c r="AH95" s="7"/>
+      <c r="AI95" s="7"/>
+      <c r="AJ95" s="7"/>
+      <c r="AK95" s="7"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+      <c r="AO95" s="7"/>
+      <c r="AP95" s="7"/>
+      <c r="AQ95" s="7"/>
+      <c r="AR95" s="7"/>
+      <c r="AS95" s="7"/>
+      <c r="AT95" s="7"/>
+      <c r="AU95" s="7"/>
+      <c r="AV95" s="7"/>
+      <c r="AW95" s="8"/>
+    </row>
+    <row r="96" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="7"/>
+      <c r="AK96" s="7"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7"/>
+      <c r="AT96" s="7"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="7"/>
+      <c r="AW96" s="8"/>
+    </row>
+    <row r="97" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="7"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="7"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="7"/>
+      <c r="AW97" s="8"/>
+    </row>
+    <row r="98" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="10"/>
+      <c r="AI98" s="10"/>
+      <c r="AJ98" s="10"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+      <c r="AQ98" s="10"/>
+      <c r="AR98" s="10"/>
+      <c r="AS98" s="10"/>
+      <c r="AT98" s="10"/>
+      <c r="AU98" s="10"/>
+      <c r="AV98" s="10"/>
+      <c r="AW98" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -29,12 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Julian Turner</t>
+    <t>Over 120 Hrs</t>
   </si>
   <si>
-    <t>CM</t>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Alan Maskell</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>EC16 - Horncastle</t>
   </si>
 </sst>
 </file>
@@ -175,6 +184,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>1295400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="ComboBox1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,338 +522,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtFrontPage"/>
-  <dimension ref="B2:AW98"/>
+  <dimension ref="B2:AY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="49" width="3.140625" customWidth="1"/>
+    <col min="2" max="49" width="2.5703125" customWidth="1"/>
+    <col min="51" max="51" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>5398</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>42675</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>124</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -850,52 +894,52 @@
         <v>1</v>
       </c>
       <c r="T6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="7">
         <v>1</v>
@@ -939,8 +983,11 @@
       <c r="AW6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -987,13 +1034,13 @@
         <v>1</v>
       </c>
       <c r="Q7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <v>0</v>
@@ -1044,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="7">
         <v>1</v>
@@ -1085,8 +1132,11 @@
       <c r="AW7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>1</v>
       </c>
@@ -1133,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>0</v>
@@ -1190,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="7">
         <v>1</v>
@@ -1231,8 +1281,11 @@
       <c r="AW8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>1</v>
       </c>
@@ -1279,64 +1332,64 @@
         <v>1</v>
       </c>
       <c r="Q9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="7">
         <v>1</v>
@@ -1377,8 +1430,11 @@
       <c r="AW9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -1425,64 +1481,64 @@
         <v>1</v>
       </c>
       <c r="Q10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="10">
         <v>1</v>
@@ -1523,8 +1579,16 @@
       <c r="AW10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AY11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1</v>
       </c>
@@ -1571,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -1628,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="4">
         <v>1</v>
@@ -1669,8 +1733,11 @@
       <c r="AW12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>1</v>
       </c>
@@ -1726,52 +1793,52 @@
         <v>1</v>
       </c>
       <c r="T13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="7">
         <v>1</v>
@@ -1815,8 +1882,11 @@
       <c r="AW13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>1</v>
       </c>
@@ -1872,52 +1942,52 @@
         <v>1</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="7">
         <v>1</v>
@@ -1962,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>1</v>
       </c>
@@ -2009,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="Q15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7">
         <v>0</v>
@@ -2066,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="7">
         <v>1</v>
@@ -2108,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>1</v>
       </c>
@@ -2155,13 +2225,13 @@
         <v>1</v>
       </c>
       <c r="Q16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7">
         <v>0</v>
@@ -2212,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="7">
         <v>1</v>
@@ -2486,46 +2556,46 @@
         <v>1</v>
       </c>
       <c r="AD18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="10">
         <v>1</v>
@@ -2547,704 +2617,2048 @@
       </c>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="5"/>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="8"/>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="8"/>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="8"/>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="8"/>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="8"/>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7">
+        <v>1</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7">
+        <v>1</v>
+      </c>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="7">
+        <v>1</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="11"/>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1</v>
+      </c>
+      <c r="O26" s="10">
+        <v>1</v>
+      </c>
+      <c r="P26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10">
+        <v>1</v>
+      </c>
+      <c r="U26" s="10">
+        <v>1</v>
+      </c>
+      <c r="V26" s="10">
+        <v>1</v>
+      </c>
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+      <c r="X26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="5"/>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="7"/>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="7"/>
-      <c r="AW29" s="8"/>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
-      <c r="AW30" s="8"/>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="8"/>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="8"/>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
-      <c r="AT33" s="7"/>
-      <c r="AU33" s="7"/>
-      <c r="AV33" s="7"/>
-      <c r="AW33" s="8"/>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>1</v>
+      </c>
+      <c r="R33" s="7">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7">
+        <v>1</v>
+      </c>
+      <c r="U33" s="7">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1</v>
+      </c>
+      <c r="W33" s="7">
+        <v>1</v>
+      </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="11"/>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
+        <v>1</v>
+      </c>
+      <c r="P34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
+        <v>0</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
@@ -6048,6 +7462,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>1295400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3" name="ComboBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -29,21 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Over 120 Hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
   </si>
   <si>
     <t>Alan Maskell</t>
   </si>
   <si>
     <t>WM</t>
-  </si>
-  <si>
-    <t>EC16 - Horncastle</t>
   </si>
 </sst>
 </file>
@@ -190,29 +184,74 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>49</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>50</xdr:col>
-          <xdr:colOff>1295400</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="ComboBox1" hidden="1">
+            <xdr:cNvPr id="1025" name="CmoStation1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="CmoStation2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -527,7 +566,7 @@
   <dimension ref="B2:AY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,40 +730,40 @@
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -835,45 +874,45 @@
         <v>1</v>
       </c>
       <c r="AY5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
@@ -984,45 +1023,45 @@
         <v>1</v>
       </c>
       <c r="AY6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -1138,40 +1177,40 @@
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -1733,9 +1772,6 @@
       <c r="AW12" s="5">
         <v>1</v>
       </c>
-      <c r="AY12" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -1880,9 +1916,6 @@
         <v>1</v>
       </c>
       <c r="AW13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7467,27 +7500,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="ComboBox1">
+        <control shapeId="1026" r:id="rId3" name="CmoStation2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>1295400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="ComboBox1"/>
+        <control shapeId="1026" r:id="rId3" name="CmoStation2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId5" name="CmoStation1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId5" name="CmoStation1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -26,20 +26,6 @@
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Over 120 Hrs</t>
-  </si>
-  <si>
-    <t>Alan Maskell</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -188,22 +174,50 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>50</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>52</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -235,16 +249,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>50</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>52</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -252,6 +266,293 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="TxtCrewNo" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="TxtName" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="TxtNoWeeks" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="TxtTemplateDate" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="CmoContract" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="CmoRole" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="TxtReviewDate" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -566,7 +867,7 @@
   <dimension ref="B2:AY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,109 +882,109 @@
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="4">
         <v>1</v>
@@ -723,47 +1024,44 @@
       </c>
       <c r="AW4" s="5">
         <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -871,48 +1169,45 @@
         <v>1</v>
       </c>
       <c r="AW5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
@@ -1021,47 +1316,44 @@
       </c>
       <c r="AW6" s="8">
         <v>1</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -1073,64 +1365,64 @@
         <v>1</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="7">
         <v>1</v>
@@ -1171,46 +1463,44 @@
       <c r="AW7" s="8">
         <v>1</v>
       </c>
-      <c r="AY7" s="2">
-        <v>0</v>
-      </c>
+      <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -1222,64 +1512,64 @@
         <v>1</v>
       </c>
       <c r="Q8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="7">
         <v>1</v>
@@ -1319,9 +1609,6 @@
       </c>
       <c r="AW8" s="8">
         <v>1</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
@@ -1371,37 +1658,37 @@
         <v>1</v>
       </c>
       <c r="Q9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -1431,46 +1718,43 @@
         <v>0</v>
       </c>
       <c r="AK9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
@@ -1520,37 +1804,37 @@
         <v>1</v>
       </c>
       <c r="Q10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="10">
         <v>0</v>
@@ -1580,52 +1864,47 @@
         <v>0</v>
       </c>
       <c r="AK10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AY11" s="2">
-        <v>0</v>
-      </c>
+      <c r="AY11" s="2"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1674,64 +1953,64 @@
         <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="4">
         <v>1</v>
@@ -2112,64 +2391,64 @@
         <v>1</v>
       </c>
       <c r="Q15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="7">
         <v>1</v>
@@ -2258,64 +2537,64 @@
         <v>1</v>
       </c>
       <c r="Q16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="7">
         <v>1</v>
@@ -2359,106 +2638,106 @@
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="7">
         <v>1</v>
@@ -2583,70 +2862,70 @@
         <v>1</v>
       </c>
       <c r="AB18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.25">
@@ -2696,64 +2975,64 @@
         <v>1</v>
       </c>
       <c r="Q20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="4">
         <v>1</v>
@@ -2842,64 +3121,64 @@
         <v>1</v>
       </c>
       <c r="Q21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="7">
         <v>1</v>
@@ -2988,64 +3267,64 @@
         <v>1</v>
       </c>
       <c r="Q22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="7">
         <v>1</v>
@@ -3134,64 +3413,64 @@
         <v>1</v>
       </c>
       <c r="Q23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="7">
         <v>1</v>
@@ -3280,64 +3559,64 @@
         <v>1</v>
       </c>
       <c r="Q24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="7">
         <v>1</v>
@@ -3453,76 +3732,76 @@
         <v>1</v>
       </c>
       <c r="Z25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.25">
@@ -3599,76 +3878,76 @@
         <v>1</v>
       </c>
       <c r="Z26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.25">
@@ -3718,64 +3997,64 @@
         <v>1</v>
       </c>
       <c r="Q28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="4">
         <v>1</v>
@@ -3864,64 +4143,64 @@
         <v>1</v>
       </c>
       <c r="Q29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="7">
         <v>1</v>
@@ -4010,64 +4289,64 @@
         <v>1</v>
       </c>
       <c r="Q30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="7">
         <v>1</v>
@@ -4156,64 +4435,64 @@
         <v>1</v>
       </c>
       <c r="Q31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="7">
         <v>1</v>
@@ -4302,55 +4581,55 @@
         <v>1</v>
       </c>
       <c r="Q32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="7">
         <v>0</v>
@@ -4362,43 +4641,43 @@
         <v>0</v>
       </c>
       <c r="AK32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
@@ -4493,58 +4772,58 @@
         <v>1</v>
       </c>
       <c r="AF33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
@@ -4594,49 +4873,49 @@
         <v>1</v>
       </c>
       <c r="Q34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="10">
         <v>0</v>
@@ -4654,43 +4933,43 @@
         <v>0</v>
       </c>
       <c r="AK34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:49" x14ac:dyDescent="0.25">
@@ -7504,16 +7783,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>52</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7526,18 +7805,193 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId5" name="CmoStation1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId5" name="CmoStation1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId7" name="TxtCrewNo">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId7" name="TxtCrewNo"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId9" name="TxtName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId9" name="TxtName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId11" name="TxtNoWeeks">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId11" name="TxtNoWeeks"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId13" name="TxtTemplateDate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId13" name="TxtTemplateDate"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId15" name="CmoContract">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId15" name="CmoContract"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId17" name="CmoRole">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>52</xdr:col>
                 <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId17" name="CmoRole"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId18" name="TxtReviewDate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>15</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -7545,7 +7999,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId5" name="CmoStation1"/>
+        <control shapeId="1033" r:id="rId18" name="TxtReviewDate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -25,6 +25,7 @@
     <definedName name="Week2">Main!$B$12:$AW$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2841,6 +2842,10 @@
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3251,13 +3256,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>133349</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>47624</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -3267,6 +3272,47 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="BtnNewAA" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3581,7 +3627,7 @@
   <dimension ref="B2:AY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,1027 +3641,355 @@
       <c r="I2" s="2"/>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>1</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7">
-        <v>1</v>
-      </c>
-      <c r="X5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>1</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="8"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>1</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="8"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7">
-        <v>1</v>
-      </c>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
-      <c r="W7" s="7">
-        <v>1</v>
-      </c>
-      <c r="X7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="8">
-        <v>1</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="8"/>
       <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-      <c r="R8" s="7">
-        <v>1</v>
-      </c>
-      <c r="S8" s="7">
-        <v>1</v>
-      </c>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7">
-        <v>1</v>
-      </c>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
-      <c r="W8" s="7">
-        <v>1</v>
-      </c>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="8">
-        <v>1</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="8"/>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1</v>
-      </c>
-      <c r="S9" s="7">
-        <v>1</v>
-      </c>
-      <c r="T9" s="7">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
-      <c r="W9" s="7">
-        <v>1</v>
-      </c>
-      <c r="X9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="8">
-        <v>0</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="8"/>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10">
-        <v>1</v>
-      </c>
-      <c r="V10" s="10">
-        <v>1</v>
-      </c>
-      <c r="W10" s="10">
-        <v>1</v>
-      </c>
-      <c r="X10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="11">
-        <v>1</v>
-      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="11"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AY11" s="2"/>
@@ -8580,7 +7954,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1030" r:id="rId12" name="TxtTemplateDate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
@@ -8604,8 +7978,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId14" name="TxtNoWeeks">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="1029" r:id="rId13" name="TxtNoWeeks">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8624,13 +7998,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId14" name="TxtNoWeeks"/>
+        <control shapeId="1029" r:id="rId13" name="TxtNoWeeks"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId16" name="TxtName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="1028" r:id="rId15" name="TxtName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8649,13 +8023,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId16" name="TxtName"/>
+        <control shapeId="1028" r:id="rId15" name="TxtName"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId18" name="TxtCrewNo">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+        <control shapeId="1027" r:id="rId16" name="TxtCrewNo">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8674,13 +8048,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId18" name="TxtCrewNo"/>
+        <control shapeId="1027" r:id="rId16" name="TxtCrewNo"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId20" name="CmoStation1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+        <control shapeId="1025" r:id="rId17" name="CmoStation1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8699,13 +8073,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId20" name="CmoStation1"/>
+        <control shapeId="1025" r:id="rId17" name="CmoStation1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId22" name="CmoStation2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+        <control shapeId="1026" r:id="rId19" name="CmoStation2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8724,7 +8098,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId22" name="CmoStation2"/>
+        <control shapeId="1026" r:id="rId19" name="CmoStation2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId21" name="BtnNewAA">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId21" name="BtnNewAA"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -2709,12 +2709,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF322924"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -2809,19 +2815,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,15 +2872,19 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2861,7 +2892,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2877,7 +2908,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3333,6 +3364,47 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="BtnUpdateAA" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3627,7 +3699,7 @@
   <dimension ref="B2:AY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,708 +3713,2052 @@
       <c r="I2" s="2"/>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="5"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="8"/>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="8"/>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="8"/>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>0</v>
+      </c>
       <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="8"/>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="8"/>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="11"/>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AY11" s="2"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="5"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="8"/>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="8"/>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="8"/>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="8"/>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="8"/>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="11"/>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -7495,354 +8911,354 @@
       <c r="AW90" s="11"/>
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-      <c r="AG92" s="4"/>
-      <c r="AH92" s="4"/>
-      <c r="AI92" s="4"/>
-      <c r="AJ92" s="4"/>
-      <c r="AK92" s="4"/>
-      <c r="AL92" s="4"/>
-      <c r="AM92" s="4"/>
-      <c r="AN92" s="4"/>
-      <c r="AO92" s="4"/>
-      <c r="AP92" s="4"/>
-      <c r="AQ92" s="4"/>
-      <c r="AR92" s="4"/>
-      <c r="AS92" s="4"/>
-      <c r="AT92" s="4"/>
-      <c r="AU92" s="4"/>
-      <c r="AV92" s="4"/>
-      <c r="AW92" s="5"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="12"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+      <c r="AO92" s="12"/>
+      <c r="AP92" s="12"/>
+      <c r="AQ92" s="12"/>
+      <c r="AR92" s="12"/>
+      <c r="AS92" s="12"/>
+      <c r="AT92" s="12"/>
+      <c r="AU92" s="12"/>
+      <c r="AV92" s="12"/>
+      <c r="AW92" s="12"/>
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7"/>
-      <c r="AK93" s="7"/>
-      <c r="AL93" s="7"/>
-      <c r="AM93" s="7"/>
-      <c r="AN93" s="7"/>
-      <c r="AO93" s="7"/>
-      <c r="AP93" s="7"/>
-      <c r="AQ93" s="7"/>
-      <c r="AR93" s="7"/>
-      <c r="AS93" s="7"/>
-      <c r="AT93" s="7"/>
-      <c r="AU93" s="7"/>
-      <c r="AV93" s="7"/>
-      <c r="AW93" s="8"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="12"/>
+      <c r="AW93" s="12"/>
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7"/>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7"/>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7"/>
-      <c r="AJ94" s="7"/>
-      <c r="AK94" s="7"/>
-      <c r="AL94" s="7"/>
-      <c r="AM94" s="7"/>
-      <c r="AN94" s="7"/>
-      <c r="AO94" s="7"/>
-      <c r="AP94" s="7"/>
-      <c r="AQ94" s="7"/>
-      <c r="AR94" s="7"/>
-      <c r="AS94" s="7"/>
-      <c r="AT94" s="7"/>
-      <c r="AU94" s="7"/>
-      <c r="AV94" s="7"/>
-      <c r="AW94" s="8"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="12"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="12"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
+      <c r="AM94" s="12"/>
+      <c r="AN94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AQ94" s="12"/>
+      <c r="AR94" s="12"/>
+      <c r="AS94" s="12"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="12"/>
+      <c r="AW94" s="12"/>
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
-      <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
-      <c r="AF95" s="7"/>
-      <c r="AG95" s="7"/>
-      <c r="AH95" s="7"/>
-      <c r="AI95" s="7"/>
-      <c r="AJ95" s="7"/>
-      <c r="AK95" s="7"/>
-      <c r="AL95" s="7"/>
-      <c r="AM95" s="7"/>
-      <c r="AN95" s="7"/>
-      <c r="AO95" s="7"/>
-      <c r="AP95" s="7"/>
-      <c r="AQ95" s="7"/>
-      <c r="AR95" s="7"/>
-      <c r="AS95" s="7"/>
-      <c r="AT95" s="7"/>
-      <c r="AU95" s="7"/>
-      <c r="AV95" s="7"/>
-      <c r="AW95" s="8"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="12"/>
+      <c r="AI95" s="12"/>
+      <c r="AJ95" s="12"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="12"/>
+      <c r="AM95" s="12"/>
+      <c r="AN95" s="12"/>
+      <c r="AO95" s="12"/>
+      <c r="AP95" s="12"/>
+      <c r="AQ95" s="12"/>
+      <c r="AR95" s="12"/>
+      <c r="AS95" s="12"/>
+      <c r="AT95" s="12"/>
+      <c r="AU95" s="12"/>
+      <c r="AV95" s="12"/>
+      <c r="AW95" s="12"/>
     </row>
     <row r="96" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="7"/>
-      <c r="AD96" s="7"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="7"/>
-      <c r="AG96" s="7"/>
-      <c r="AH96" s="7"/>
-      <c r="AI96" s="7"/>
-      <c r="AJ96" s="7"/>
-      <c r="AK96" s="7"/>
-      <c r="AL96" s="7"/>
-      <c r="AM96" s="7"/>
-      <c r="AN96" s="7"/>
-      <c r="AO96" s="7"/>
-      <c r="AP96" s="7"/>
-      <c r="AQ96" s="7"/>
-      <c r="AR96" s="7"/>
-      <c r="AS96" s="7"/>
-      <c r="AT96" s="7"/>
-      <c r="AU96" s="7"/>
-      <c r="AV96" s="7"/>
-      <c r="AW96" s="8"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="12"/>
+      <c r="AW96" s="12"/>
     </row>
     <row r="97" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="7"/>
-      <c r="AD97" s="7"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="7"/>
-      <c r="AG97" s="7"/>
-      <c r="AH97" s="7"/>
-      <c r="AI97" s="7"/>
-      <c r="AJ97" s="7"/>
-      <c r="AK97" s="7"/>
-      <c r="AL97" s="7"/>
-      <c r="AM97" s="7"/>
-      <c r="AN97" s="7"/>
-      <c r="AO97" s="7"/>
-      <c r="AP97" s="7"/>
-      <c r="AQ97" s="7"/>
-      <c r="AR97" s="7"/>
-      <c r="AS97" s="7"/>
-      <c r="AT97" s="7"/>
-      <c r="AU97" s="7"/>
-      <c r="AV97" s="7"/>
-      <c r="AW97" s="8"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="12"/>
+      <c r="AH97" s="12"/>
+      <c r="AI97" s="12"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="12"/>
+      <c r="AM97" s="12"/>
+      <c r="AN97" s="12"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+      <c r="AQ97" s="12"/>
+      <c r="AR97" s="12"/>
+      <c r="AS97" s="12"/>
+      <c r="AT97" s="12"/>
+      <c r="AU97" s="12"/>
+      <c r="AV97" s="12"/>
+      <c r="AW97" s="12"/>
     </row>
     <row r="98" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="10"/>
-      <c r="S98" s="10"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="10"/>
-      <c r="W98" s="10"/>
-      <c r="X98" s="10"/>
-      <c r="Y98" s="10"/>
-      <c r="Z98" s="10"/>
-      <c r="AA98" s="10"/>
-      <c r="AB98" s="10"/>
-      <c r="AC98" s="10"/>
-      <c r="AD98" s="10"/>
-      <c r="AE98" s="10"/>
-      <c r="AF98" s="10"/>
-      <c r="AG98" s="10"/>
-      <c r="AH98" s="10"/>
-      <c r="AI98" s="10"/>
-      <c r="AJ98" s="10"/>
-      <c r="AK98" s="10"/>
-      <c r="AL98" s="10"/>
-      <c r="AM98" s="10"/>
-      <c r="AN98" s="10"/>
-      <c r="AO98" s="10"/>
-      <c r="AP98" s="10"/>
-      <c r="AQ98" s="10"/>
-      <c r="AR98" s="10"/>
-      <c r="AS98" s="10"/>
-      <c r="AT98" s="10"/>
-      <c r="AU98" s="10"/>
-      <c r="AV98" s="10"/>
-      <c r="AW98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AM98" s="12"/>
+      <c r="AN98" s="12"/>
+      <c r="AO98" s="12"/>
+      <c r="AP98" s="12"/>
+      <c r="AQ98" s="12"/>
+      <c r="AR98" s="12"/>
+      <c r="AS98" s="12"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="12"/>
+      <c r="AW98" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -7853,8 +9269,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId4" name="BtnLoadAA">
+        <control shapeId="1036" r:id="rId4" name="BtnUpdateAA">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId4" name="BtnUpdateAA"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId6" name="BtnLoadAA">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7873,13 +9314,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId4" name="BtnLoadAA"/>
+        <control shapeId="1034" r:id="rId6" name="BtnLoadAA"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId6" name="TxtReviewDate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1033" r:id="rId8" name="TxtReviewDate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
@@ -7898,13 +9339,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId6" name="TxtReviewDate"/>
+        <control shapeId="1033" r:id="rId8" name="TxtReviewDate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId8" name="CmoRole">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1032" r:id="rId10" name="CmoRole">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
@@ -7923,12 +9364,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId8" name="CmoRole"/>
+        <control shapeId="1032" r:id="rId10" name="CmoRole"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId10" name="CmoContract">
+        <control shapeId="1031" r:id="rId12" name="CmoContract">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -7948,13 +9389,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId10" name="CmoContract"/>
+        <control shapeId="1031" r:id="rId12" name="CmoContract"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId12" name="TxtTemplateDate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1030" r:id="rId13" name="TxtTemplateDate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
@@ -7973,13 +9414,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId12" name="TxtTemplateDate"/>
+        <control shapeId="1030" r:id="rId13" name="TxtTemplateDate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId13" name="TxtNoWeeks">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+        <control shapeId="1029" r:id="rId15" name="TxtNoWeeks">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -7998,13 +9439,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId13" name="TxtNoWeeks"/>
+        <control shapeId="1029" r:id="rId15" name="TxtNoWeeks"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId15" name="TxtName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1028" r:id="rId17" name="TxtName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8023,13 +9464,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId15" name="TxtName"/>
+        <control shapeId="1028" r:id="rId17" name="TxtName"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId16" name="TxtCrewNo">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1027" r:id="rId19" name="TxtCrewNo">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8048,13 +9489,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId16" name="TxtCrewNo"/>
+        <control shapeId="1027" r:id="rId19" name="TxtCrewNo"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId17" name="CmoStation1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+        <control shapeId="1025" r:id="rId21" name="CmoStation1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8073,13 +9514,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId17" name="CmoStation1"/>
+        <control shapeId="1025" r:id="rId21" name="CmoStation1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId19" name="CmoStation2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="1026" r:id="rId22" name="CmoStation2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>49</xdr:col>
@@ -8098,13 +9539,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId19" name="CmoStation2"/>
+        <control shapeId="1026" r:id="rId22" name="CmoStation2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId21" name="BtnNewAA">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+        <control shapeId="1035" r:id="rId24" name="BtnNewAA">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -8123,7 +9564,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId21" name="BtnNewAA"/>
+        <control shapeId="1035" r:id="rId24" name="BtnNewAA"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/RDS Agreement Manager.xlsx
+++ b/RDS Agreement Manager.xlsx
@@ -25,12 +25,11 @@
     <definedName name="Week2">Main!$B$12:$AW$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="887">
   <si>
     <t>1013</t>
   </si>
@@ -723,9 +722,6 @@
   </si>
   <si>
     <t>3443</t>
-  </si>
-  <si>
-    <t>Simon Smith</t>
   </si>
   <si>
     <t>3450</t>
@@ -2709,7 +2705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2719,6 +2715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF322924"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF154E54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2815,7 +2817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2849,6 +2851,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2868,11 +2879,11 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2880,19 +2891,19 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2904,11 +2915,11 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3699,7 +3710,7 @@
   <dimension ref="B2:AY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,2050 +3724,2050 @@
       <c r="I2" s="2"/>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>0</v>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>0</v>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>0</v>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="8">
-        <v>0</v>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0</v>
+      </c>
+      <c r="X7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>1</v>
       </c>
       <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="8">
-        <v>0</v>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="8">
-        <v>0</v>
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1</v>
+      </c>
+      <c r="M9" s="17">
+        <v>1</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1</v>
+      </c>
+      <c r="S9" s="17">
+        <v>1</v>
+      </c>
+      <c r="T9" s="17">
+        <v>1</v>
+      </c>
+      <c r="U9" s="17">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1</v>
+      </c>
+      <c r="W9" s="17">
+        <v>1</v>
+      </c>
+      <c r="X9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
-        <v>0</v>
-      </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="11">
-        <v>0</v>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20">
+        <v>1</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+      <c r="O10" s="20">
+        <v>1</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1</v>
+      </c>
+      <c r="R10" s="20">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <v>1</v>
+      </c>
+      <c r="T10" s="20">
+        <v>1</v>
+      </c>
+      <c r="U10" s="20">
+        <v>1</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1</v>
+      </c>
+      <c r="W10" s="20">
+        <v>1</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AY11" s="2"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="5">
-        <v>0</v>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="8">
-        <v>0</v>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="8">
-        <v>0</v>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="8">
-        <v>0</v>
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <v>0</v>
+      </c>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="8">
-        <v>0</v>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <v>0</v>
+      </c>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="8">
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0</v>
-      </c>
-      <c r="U18" s="10">
-        <v>0</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="11">
+      <c r="B18" s="19">
+        <v>0</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0</v>
+      </c>
+      <c r="R18" s="20">
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <v>0</v>
+      </c>
+      <c r="V18" s="20">
+        <v>0</v>
+      </c>
+      <c r="W18" s="20">
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="21">
         <v>0</v>
       </c>
     </row>
@@ -9269,8 +9280,283 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId4" name="BtnUpdateAA">
+        <control shapeId="1035" r:id="rId4" name="BtnNewAA">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId4" name="BtnNewAA"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="CmoStation2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="CmoStation2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId8" name="CmoStation1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId8" name="CmoStation1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="TxtCrewNo">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="TxtCrewNo"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId12" name="TxtName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId12" name="TxtName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId14" name="TxtNoWeeks">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>49</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId14" name="TxtNoWeeks"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId16" name="TxtTemplateDate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId16" name="TxtTemplateDate"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId18" name="CmoContract">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId18" name="CmoContract"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId20" name="CmoRole">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId20" name="CmoRole"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId22" name="TxtReviewDate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId22" name="TxtReviewDate"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId23" name="BtnLoadAA">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId23" name="BtnLoadAA"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId25" name="BtnUpdateAA">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
@@ -9289,282 +9575,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId4" name="BtnUpdateAA"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId6" name="BtnLoadAA">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId6" name="BtnLoadAA"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId8" name="TxtReviewDate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId8" name="TxtReviewDate"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId10" name="CmoRole">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId10" name="CmoRole"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId12" name="CmoContract">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId12" name="CmoContract"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId13" name="TxtTemplateDate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId13" name="TxtTemplateDate"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId15" name="TxtNoWeeks">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId15" name="TxtNoWeeks"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId17" name="TxtName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId17" name="TxtName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId19" name="TxtCrewNo">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId19" name="TxtCrewNo"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId21" name="CmoStation1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId21" name="CmoStation1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId22" name="CmoStation2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId22" name="CmoStation2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId24" name="BtnNewAA">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId24" name="BtnNewAA"/>
+        <control shapeId="1036" r:id="rId25" name="BtnUpdateAA"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10518,2639 +10529,2639 @@
         <v>230</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
         <v>232</v>
-      </c>
-      <c r="B118" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
         <v>234</v>
-      </c>
-      <c r="B119" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
         <v>236</v>
-      </c>
-      <c r="B120" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
         <v>238</v>
-      </c>
-      <c r="B121" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
         <v>240</v>
-      </c>
-      <c r="B122" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
         <v>242</v>
-      </c>
-      <c r="B123" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
         <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
         <v>246</v>
-      </c>
-      <c r="B125" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
         <v>248</v>
-      </c>
-      <c r="B126" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
         <v>252</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
         <v>254</v>
-      </c>
-      <c r="B129" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
         <v>256</v>
-      </c>
-      <c r="B130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
         <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
         <v>260</v>
-      </c>
-      <c r="B132" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" t="s">
         <v>262</v>
-      </c>
-      <c r="B133" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
         <v>264</v>
-      </c>
-      <c r="B134" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
         <v>266</v>
-      </c>
-      <c r="B135" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
         <v>268</v>
-      </c>
-      <c r="B136" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
         <v>270</v>
-      </c>
-      <c r="B137" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
         <v>272</v>
-      </c>
-      <c r="B138" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
         <v>274</v>
-      </c>
-      <c r="B139" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
         <v>276</v>
-      </c>
-      <c r="B140" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
         <v>278</v>
-      </c>
-      <c r="B141" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" t="s">
         <v>280</v>
-      </c>
-      <c r="B142" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" t="s">
         <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
         <v>284</v>
-      </c>
-      <c r="B144" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
         <v>286</v>
-      </c>
-      <c r="B145" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
         <v>288</v>
-      </c>
-      <c r="B146" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
         <v>290</v>
-      </c>
-      <c r="B147" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
         <v>292</v>
-      </c>
-      <c r="B148" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
         <v>294</v>
-      </c>
-      <c r="B149" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
         <v>296</v>
-      </c>
-      <c r="B150" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" t="s">
         <v>298</v>
-      </c>
-      <c r="B151" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" t="s">
         <v>300</v>
-      </c>
-      <c r="B152" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" t="s">
         <v>302</v>
-      </c>
-      <c r="B153" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" t="s">
         <v>304</v>
-      </c>
-      <c r="B154" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" t="s">
         <v>306</v>
-      </c>
-      <c r="B155" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" t="s">
         <v>308</v>
-      </c>
-      <c r="B156" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
         <v>310</v>
-      </c>
-      <c r="B157" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" t="s">
         <v>312</v>
-      </c>
-      <c r="B158" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s">
         <v>314</v>
-      </c>
-      <c r="B159" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" t="s">
         <v>316</v>
-      </c>
-      <c r="B160" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" t="s">
         <v>318</v>
-      </c>
-      <c r="B161" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" t="s">
         <v>320</v>
-      </c>
-      <c r="B162" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" t="s">
         <v>322</v>
-      </c>
-      <c r="B163" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" t="s">
         <v>324</v>
-      </c>
-      <c r="B164" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" t="s">
         <v>326</v>
-      </c>
-      <c r="B165" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" t="s">
         <v>328</v>
-      </c>
-      <c r="B166" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" t="s">
         <v>330</v>
-      </c>
-      <c r="B167" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" t="s">
         <v>332</v>
-      </c>
-      <c r="B168" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" t="s">
         <v>334</v>
-      </c>
-      <c r="B169" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" t="s">
         <v>336</v>
-      </c>
-      <c r="B170" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
         <v>338</v>
-      </c>
-      <c r="B171" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" t="s">
         <v>340</v>
-      </c>
-      <c r="B172" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" t="s">
         <v>342</v>
-      </c>
-      <c r="B173" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" t="s">
         <v>344</v>
-      </c>
-      <c r="B174" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" t="s">
         <v>346</v>
-      </c>
-      <c r="B175" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
         <v>348</v>
-      </c>
-      <c r="B176" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
         <v>350</v>
-      </c>
-      <c r="B177" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
         <v>352</v>
-      </c>
-      <c r="B178" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
         <v>354</v>
-      </c>
-      <c r="B179" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" t="s">
         <v>356</v>
-      </c>
-      <c r="B180" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
         <v>358</v>
-      </c>
-      <c r="B181" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
         <v>360</v>
-      </c>
-      <c r="B182" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
         <v>362</v>
-      </c>
-      <c r="B183" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
         <v>364</v>
-      </c>
-      <c r="B184" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" t="s">
         <v>366</v>
-      </c>
-      <c r="B185" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" t="s">
         <v>368</v>
-      </c>
-      <c r="B186" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" t="s">
         <v>370</v>
-      </c>
-      <c r="B187" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
         <v>372</v>
-      </c>
-      <c r="B188" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" t="s">
         <v>374</v>
-      </c>
-      <c r="B189" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
         <v>376</v>
-      </c>
-      <c r="B190" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" t="s">
         <v>378</v>
-      </c>
-      <c r="B191" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
         <v>380</v>
-      </c>
-      <c r="B192" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" t="s">
         <v>382</v>
-      </c>
-      <c r="B193" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" t="s">
         <v>384</v>
-      </c>
-      <c r="B194" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" t="s">
         <v>386</v>
-      </c>
-      <c r="B195" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" t="s">
         <v>388</v>
-      </c>
-      <c r="B196" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" t="s">
         <v>390</v>
-      </c>
-      <c r="B197" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" t="s">
         <v>392</v>
-      </c>
-      <c r="B198" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" t="s">
         <v>394</v>
-      </c>
-      <c r="B199" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" t="s">
         <v>396</v>
-      </c>
-      <c r="B200" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>397</v>
+      </c>
+      <c r="B201" t="s">
         <v>398</v>
-      </c>
-      <c r="B201" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>399</v>
+      </c>
+      <c r="B202" t="s">
         <v>400</v>
-      </c>
-      <c r="B202" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>401</v>
+      </c>
+      <c r="B203" t="s">
         <v>402</v>
-      </c>
-      <c r="B203" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204" t="s">
         <v>404</v>
-      </c>
-      <c r="B204" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" t="s">
         <v>406</v>
-      </c>
-      <c r="B205" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" t="s">
         <v>408</v>
-      </c>
-      <c r="B206" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" t="s">
         <v>410</v>
-      </c>
-      <c r="B207" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>411</v>
+      </c>
+      <c r="B208" t="s">
         <v>412</v>
-      </c>
-      <c r="B208" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" t="s">
         <v>414</v>
-      </c>
-      <c r="B209" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" t="s">
         <v>416</v>
-      </c>
-      <c r="B210" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" t="s">
         <v>418</v>
-      </c>
-      <c r="B211" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" t="s">
         <v>420</v>
-      </c>
-      <c r="B212" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" t="s">
         <v>422</v>
-      </c>
-      <c r="B213" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" t="s">
         <v>424</v>
-      </c>
-      <c r="B214" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" t="s">
         <v>426</v>
-      </c>
-      <c r="B215" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" t="s">
         <v>428</v>
-      </c>
-      <c r="B216" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" t="s">
         <v>430</v>
-      </c>
-      <c r="B217" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" t="s">
         <v>432</v>
-      </c>
-      <c r="B218" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" t="s">
         <v>434</v>
-      </c>
-      <c r="B219" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" t="s">
         <v>436</v>
-      </c>
-      <c r="B220" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" t="s">
         <v>438</v>
-      </c>
-      <c r="B221" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>439</v>
+      </c>
+      <c r="B222" t="s">
         <v>440</v>
-      </c>
-      <c r="B222" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>441</v>
+      </c>
+      <c r="B223" t="s">
         <v>442</v>
-      </c>
-      <c r="B223" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>443</v>
+      </c>
+      <c r="B224" t="s">
         <v>444</v>
-      </c>
-      <c r="B224" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>445</v>
+      </c>
+      <c r="B225" t="s">
         <v>446</v>
-      </c>
-      <c r="B225" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226" t="s">
         <v>448</v>
-      </c>
-      <c r="B226" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" t="s">
         <v>450</v>
-      </c>
-      <c r="B227" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>451</v>
+      </c>
+      <c r="B228" t="s">
         <v>452</v>
-      </c>
-      <c r="B228" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>453</v>
+      </c>
+      <c r="B229" t="s">
         <v>454</v>
-      </c>
-      <c r="B229" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" t="s">
         <v>456</v>
-      </c>
-      <c r="B230" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>457</v>
+      </c>
+      <c r="B231" t="s">
         <v>458</v>
-      </c>
-      <c r="B231" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>459</v>
+      </c>
+      <c r="B232" t="s">
         <v>460</v>
-      </c>
-      <c r="B232" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>461</v>
+      </c>
+      <c r="B233" t="s">
         <v>462</v>
-      </c>
-      <c r="B233" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>463</v>
+      </c>
+      <c r="B234" t="s">
         <v>464</v>
-      </c>
-      <c r="B234" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>465</v>
+      </c>
+      <c r="B235" t="s">
         <v>466</v>
-      </c>
-      <c r="B235" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>467</v>
+      </c>
+      <c r="B236" t="s">
         <v>468</v>
-      </c>
-      <c r="B236" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>469</v>
+      </c>
+      <c r="B237" t="s">
         <v>470</v>
-      </c>
-      <c r="B237" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>471</v>
+      </c>
+      <c r="B238" t="s">
         <v>472</v>
-      </c>
-      <c r="B238" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>473</v>
+      </c>
+      <c r="B239" t="s">
         <v>474</v>
-      </c>
-      <c r="B239" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>475</v>
+      </c>
+      <c r="B240" t="s">
         <v>476</v>
-      </c>
-      <c r="B240" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>477</v>
+      </c>
+      <c r="B241" t="s">
         <v>478</v>
-      </c>
-      <c r="B241" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" t="s">
         <v>480</v>
-      </c>
-      <c r="B242" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>481</v>
+      </c>
+      <c r="B243" t="s">
         <v>482</v>
-      </c>
-      <c r="B243" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>483</v>
+      </c>
+      <c r="B244" t="s">
         <v>484</v>
-      </c>
-      <c r="B244" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>485</v>
+      </c>
+      <c r="B245" t="s">
         <v>486</v>
-      </c>
-      <c r="B245" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>487</v>
+      </c>
+      <c r="B246" t="s">
         <v>488</v>
-      </c>
-      <c r="B246" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" t="s">
         <v>490</v>
-      </c>
-      <c r="B247" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>491</v>
+      </c>
+      <c r="B248" t="s">
         <v>492</v>
-      </c>
-      <c r="B248" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>493</v>
+      </c>
+      <c r="B249" t="s">
         <v>494</v>
-      </c>
-      <c r="B249" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>495</v>
+      </c>
+      <c r="B250" t="s">
         <v>496</v>
-      </c>
-      <c r="B250" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" t="s">
         <v>498</v>
-      </c>
-      <c r="B251" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" t="s">
         <v>500</v>
-      </c>
-      <c r="B252" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253" t="s">
         <v>502</v>
-      </c>
-      <c r="B253" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" t="s">
         <v>504</v>
-      </c>
-      <c r="B254" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>505</v>
+      </c>
+      <c r="B255" t="s">
         <v>506</v>
-      </c>
-      <c r="B255" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256" t="s">
         <v>508</v>
-      </c>
-      <c r="B256" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" t="s">
         <v>510</v>
-      </c>
-      <c r="B257" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>511</v>
+      </c>
+      <c r="B258" t="s">
         <v>512</v>
-      </c>
-      <c r="B258" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" t="s">
         <v>514</v>
-      </c>
-      <c r="B259" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" t="s">
         <v>516</v>
-      </c>
-      <c r="B260" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261" t="s">
         <v>518</v>
-      </c>
-      <c r="B261" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>519</v>
+      </c>
+      <c r="B262" t="s">
         <v>520</v>
-      </c>
-      <c r="B262" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>521</v>
+      </c>
+      <c r="B263" t="s">
         <v>522</v>
-      </c>
-      <c r="B263" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>523</v>
+      </c>
+      <c r="B264" t="s">
         <v>524</v>
-      </c>
-      <c r="B264" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>525</v>
+      </c>
+      <c r="B265" t="s">
         <v>526</v>
-      </c>
-      <c r="B265" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>527</v>
+      </c>
+      <c r="B266" t="s">
         <v>528</v>
-      </c>
-      <c r="B266" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>529</v>
+      </c>
+      <c r="B267" t="s">
         <v>530</v>
-      </c>
-      <c r="B267" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>531</v>
+      </c>
+      <c r="B268" t="s">
         <v>532</v>
-      </c>
-      <c r="B268" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>533</v>
+      </c>
+      <c r="B269" t="s">
         <v>534</v>
-      </c>
-      <c r="B269" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>535</v>
+      </c>
+      <c r="B270" t="s">
         <v>536</v>
-      </c>
-      <c r="B270" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271" t="s">
         <v>538</v>
-      </c>
-      <c r="B271" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>539</v>
+      </c>
+      <c r="B272" t="s">
         <v>540</v>
-      </c>
-      <c r="B272" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>541</v>
+      </c>
+      <c r="B273" t="s">
         <v>542</v>
-      </c>
-      <c r="B273" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>543</v>
+      </c>
+      <c r="B274" t="s">
         <v>544</v>
-      </c>
-      <c r="B274" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275" t="s">
         <v>546</v>
-      </c>
-      <c r="B275" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>547</v>
+      </c>
+      <c r="B276" t="s">
         <v>548</v>
-      </c>
-      <c r="B276" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>549</v>
+      </c>
+      <c r="B277" t="s">
         <v>550</v>
-      </c>
-      <c r="B277" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>551</v>
+      </c>
+      <c r="B278" t="s">
         <v>552</v>
-      </c>
-      <c r="B278" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>553</v>
+      </c>
+      <c r="B279" t="s">
         <v>554</v>
-      </c>
-      <c r="B279" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>555</v>
+      </c>
+      <c r="B280" t="s">
         <v>556</v>
-      </c>
-      <c r="B280" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" t="s">
         <v>558</v>
-      </c>
-      <c r="B281" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" t="s">
         <v>560</v>
-      </c>
-      <c r="B282" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" t="s">
         <v>562</v>
-      </c>
-      <c r="B283" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>563</v>
+      </c>
+      <c r="B284" t="s">
         <v>564</v>
-      </c>
-      <c r="B284" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>565</v>
+      </c>
+      <c r="B285" t="s">
         <v>566</v>
-      </c>
-      <c r="B285" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>567</v>
+      </c>
+      <c r="B286" t="s">
         <v>568</v>
-      </c>
-      <c r="B286" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>569</v>
+      </c>
+      <c r="B287" t="s">
         <v>570</v>
-      </c>
-      <c r="B287" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>571</v>
+      </c>
+      <c r="B288" t="s">
         <v>572</v>
-      </c>
-      <c r="B288" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>573</v>
+      </c>
+      <c r="B289" t="s">
         <v>574</v>
-      </c>
-      <c r="B289" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" t="s">
         <v>576</v>
-      </c>
-      <c r="B290" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>577</v>
+      </c>
+      <c r="B291" t="s">
         <v>578</v>
-      </c>
-      <c r="B291" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" t="s">
         <v>580</v>
-      </c>
-      <c r="B292" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" t="s">
         <v>582</v>
-      </c>
-      <c r="B293" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>583</v>
+      </c>
+      <c r="B294" t="s">
         <v>584</v>
-      </c>
-      <c r="B294" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>585</v>
+      </c>
+      <c r="B295" t="s">
         <v>586</v>
-      </c>
-      <c r="B295" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>587</v>
+      </c>
+      <c r="B296" t="s">
         <v>588</v>
-      </c>
-      <c r="B296" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>589</v>
+      </c>
+      <c r="B297" t="s">
         <v>590</v>
-      </c>
-      <c r="B297" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>591</v>
+      </c>
+      <c r="B298" t="s">
         <v>592</v>
-      </c>
-      <c r="B298" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>593</v>
+      </c>
+      <c r="B299" t="s">
         <v>594</v>
-      </c>
-      <c r="B299" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>595</v>
+      </c>
+      <c r="B300" t="s">
         <v>596</v>
-      </c>
-      <c r="B300" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" t="s">
         <v>598</v>
-      </c>
-      <c r="B301" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" t="s">
         <v>600</v>
-      </c>
-      <c r="B302" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" t="s">
         <v>602</v>
-      </c>
-      <c r="B303" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>603</v>
+      </c>
+      <c r="B304" t="s">
         <v>604</v>
-      </c>
-      <c r="B304" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>605</v>
+      </c>
+      <c r="B305" t="s">
         <v>606</v>
-      </c>
-      <c r="B305" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>607</v>
+      </c>
+      <c r="B306" t="s">
         <v>608</v>
-      </c>
-      <c r="B306" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>609</v>
+      </c>
+      <c r="B307" t="s">
         <v>610</v>
-      </c>
-      <c r="B307" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>611</v>
+      </c>
+      <c r="B308" t="s">
         <v>612</v>
-      </c>
-      <c r="B308" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>613</v>
+      </c>
+      <c r="B309" t="s">
         <v>614</v>
-      </c>
-      <c r="B309" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>615</v>
+      </c>
+      <c r="B310" t="s">
         <v>616</v>
-      </c>
-      <c r="B310" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>617</v>
+      </c>
+      <c r="B311" t="s">
         <v>618</v>
-      </c>
-      <c r="B311" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>619</v>
+      </c>
+      <c r="B312" t="s">
         <v>620</v>
-      </c>
-      <c r="B312" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>621</v>
+      </c>
+      <c r="B313" t="s">
         <v>622</v>
-      </c>
-      <c r="B313" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>623</v>
+      </c>
+      <c r="B314" t="s">
         <v>624</v>
-      </c>
-      <c r="B314" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>625</v>
+      </c>
+      <c r="B315" t="s">
         <v>626</v>
-      </c>
-      <c r="B315" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>627</v>
+      </c>
+      <c r="B316" t="s">
         <v>628</v>
-      </c>
-      <c r="B316" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>629</v>
+      </c>
+      <c r="B317" t="s">
         <v>630</v>
-      </c>
-      <c r="B317" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>631</v>
+      </c>
+      <c r="B318" t="s">
         <v>632</v>
-      </c>
-      <c r="B318" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>633</v>
+      </c>
+      <c r="B319" t="s">
         <v>634</v>
-      </c>
-      <c r="B319" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>635</v>
+      </c>
+      <c r="B320" t="s">
         <v>636</v>
-      </c>
-      <c r="B320" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>637</v>
+      </c>
+      <c r="B321" t="s">
         <v>638</v>
-      </c>
-      <c r="B321" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>639</v>
+      </c>
+      <c r="B322" t="s">
         <v>640</v>
-      </c>
-      <c r="B322" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>641</v>
+      </c>
+      <c r="B323" t="s">
         <v>642</v>
-      </c>
-      <c r="B323" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>643</v>
+      </c>
+      <c r="B324" t="s">
         <v>644</v>
-      </c>
-      <c r="B324" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>645</v>
+      </c>
+      <c r="B325" t="s">
         <v>646</v>
-      </c>
-      <c r="B325" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>647</v>
+      </c>
+      <c r="B326" t="s">
         <v>648</v>
-      </c>
-      <c r="B326" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>649</v>
+      </c>
+      <c r="B327" t="s">
         <v>650</v>
-      </c>
-      <c r="B327" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>651</v>
+      </c>
+      <c r="B328" t="s">
         <v>652</v>
-      </c>
-      <c r="B328" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>653</v>
+      </c>
+      <c r="B329" t="s">
         <v>654</v>
-      </c>
-      <c r="B329" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>655</v>
+      </c>
+      <c r="B330" t="s">
         <v>656</v>
-      </c>
-      <c r="B330" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>657</v>
+      </c>
+      <c r="B331" t="s">
         <v>658</v>
-      </c>
-      <c r="B331" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>659</v>
+      </c>
+      <c r="B332" t="s">
         <v>660</v>
-      </c>
-      <c r="B332" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>661</v>
+      </c>
+      <c r="B333" t="s">
         <v>662</v>
-      </c>
-      <c r="B333" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>663</v>
+      </c>
+      <c r="B334" t="s">
         <v>664</v>
-      </c>
-      <c r="B334" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>665</v>
+      </c>
+      <c r="B335" t="s">
         <v>666</v>
-      </c>
-      <c r="B335" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>667</v>
+      </c>
+      <c r="B336" t="s">
         <v>668</v>
-      </c>
-      <c r="B336" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>669</v>
+      </c>
+      <c r="B337" t="s">
         <v>670</v>
-      </c>
-      <c r="B337" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>671</v>
+      </c>
+      <c r="B338" t="s">
         <v>672</v>
-      </c>
-      <c r="B338" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>673</v>
+      </c>
+      <c r="B339" t="s">
         <v>674</v>
-      </c>
-      <c r="B339" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>675</v>
+      </c>
+      <c r="B340" t="s">
         <v>676</v>
-      </c>
-      <c r="B340" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>677</v>
+      </c>
+      <c r="B341" t="s">
         <v>678</v>
-      </c>
-      <c r="B341" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>679</v>
+      </c>
+      <c r="B342" t="s">
         <v>680</v>
-      </c>
-      <c r="B342" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>681</v>
+      </c>
+      <c r="B343" t="s">
         <v>682</v>
-      </c>
-      <c r="B343" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>683</v>
+      </c>
+      <c r="B344" t="s">
         <v>684</v>
-      </c>
-      <c r="B344" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>685</v>
+      </c>
+      <c r="B345" t="s">
         <v>686</v>
-      </c>
-      <c r="B345" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>687</v>
+      </c>
+      <c r="B346" t="s">
         <v>688</v>
-      </c>
-      <c r="B346" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>689</v>
+      </c>
+      <c r="B347" t="s">
         <v>690</v>
-      </c>
-      <c r="B347" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>691</v>
+      </c>
+      <c r="B348" t="s">
         <v>692</v>
-      </c>
-      <c r="B348" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>693</v>
+      </c>
+      <c r="B349" t="s">
         <v>694</v>
-      </c>
-      <c r="B349" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>695</v>
+      </c>
+      <c r="B350" t="s">
         <v>696</v>
-      </c>
-      <c r="B350" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>697</v>
+      </c>
+      <c r="B351" t="s">
         <v>698</v>
-      </c>
-      <c r="B351" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>699</v>
+      </c>
+      <c r="B352" t="s">
         <v>700</v>
-      </c>
-      <c r="B352" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>701</v>
+      </c>
+      <c r="B353" t="s">
         <v>702</v>
-      </c>
-      <c r="B353" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>703</v>
+      </c>
+      <c r="B354" t="s">
         <v>704</v>
-      </c>
-      <c r="B354" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>705</v>
+      </c>
+      <c r="B355" t="s">
         <v>706</v>
-      </c>
-      <c r="B355" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>707</v>
+      </c>
+      <c r="B356" t="s">
         <v>708</v>
-      </c>
-      <c r="B356" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>709</v>
+      </c>
+      <c r="B357" t="s">
         <v>710</v>
-      </c>
-      <c r="B357" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>711</v>
+      </c>
+      <c r="B358" t="s">
         <v>712</v>
-      </c>
-      <c r="B358" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>713</v>
+      </c>
+      <c r="B359" t="s">
         <v>714</v>
-      </c>
-      <c r="B359" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>715</v>
+      </c>
+      <c r="B360" t="s">
         <v>716</v>
-      </c>
-      <c r="B360" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>717</v>
+      </c>
+      <c r="B361" t="s">
         <v>718</v>
-      </c>
-      <c r="B361" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>719</v>
+      </c>
+      <c r="B362" t="s">
         <v>720</v>
-      </c>
-      <c r="B362" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>721</v>
+      </c>
+      <c r="B363" t="s">
         <v>722</v>
-      </c>
-      <c r="B363" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>723</v>
+      </c>
+      <c r="B364" t="s">
         <v>724</v>
-      </c>
-      <c r="B364" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>725</v>
+      </c>
+      <c r="B365" t="s">
         <v>726</v>
-      </c>
-      <c r="B365" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>727</v>
+      </c>
+      <c r="B366" t="s">
         <v>728</v>
-      </c>
-      <c r="B366" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>729</v>
+      </c>
+      <c r="B367" t="s">
         <v>730</v>
-      </c>
-      <c r="B367" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>731</v>
+      </c>
+      <c r="B368" t="s">
         <v>732</v>
-      </c>
-      <c r="B368" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>733</v>
+      </c>
+      <c r="B369" t="s">
         <v>734</v>
-      </c>
-      <c r="B369" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>735</v>
+      </c>
+      <c r="B370" t="s">
         <v>736</v>
-      </c>
-      <c r="B370" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>737</v>
+      </c>
+      <c r="B371" t="s">
         <v>738</v>
-      </c>
-      <c r="B371" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>739</v>
+      </c>
+      <c r="B372" t="s">
         <v>740</v>
-      </c>
-      <c r="B372" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B373" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>742</v>
+      </c>
+      <c r="B374" t="s">
         <v>743</v>
-      </c>
-      <c r="B374" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>744</v>
+      </c>
+      <c r="B375" t="s">
         <v>745</v>
-      </c>
-      <c r="B375" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>746</v>
+      </c>
+      <c r="B376" t="s">
         <v>747</v>
-      </c>
-      <c r="B376" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>748</v>
+      </c>
+      <c r="B377" t="s">
         <v>749</v>
-      </c>
-      <c r="B377" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B378" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>751</v>
+      </c>
+      <c r="B379" t="s">
         <v>752</v>
-      </c>
-      <c r="B379" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>753</v>
+      </c>
+      <c r="B380" t="s">
         <v>754</v>
-      </c>
-      <c r="B380" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>755</v>
+      </c>
+      <c r="B381" t="s">
         <v>756</v>
-      </c>
-      <c r="B381" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>757</v>
+      </c>
+      <c r="B382" t="s">
         <v>758</v>
-      </c>
-      <c r="B382" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>759</v>
+      </c>
+      <c r="B383" t="s">
         <v>760</v>
-      </c>
-      <c r="B383" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>761</v>
+      </c>
+      <c r="B384" t="s">
         <v>762</v>
-      </c>
-      <c r="B384" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>763</v>
+      </c>
+      <c r="B385" t="s">
         <v>764</v>
-      </c>
-      <c r="B385" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>765</v>
+      </c>
+      <c r="B386" t="s">
         <v>766</v>
-      </c>
-      <c r="B386" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>767</v>
+      </c>
+      <c r="B387" t="s">
         <v>768</v>
-      </c>
-      <c r="B387" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>769</v>
+      </c>
+      <c r="B388" t="s">
         <v>770</v>
-      </c>
-      <c r="B388" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>771</v>
+      </c>
+      <c r="B389" t="s">
         <v>772</v>
-      </c>
-      <c r="B389" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>773</v>
+      </c>
+      <c r="B390" t="s">
         <v>774</v>
-      </c>
-      <c r="B390" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>775</v>
+      </c>
+      <c r="B391" t="s">
         <v>776</v>
-      </c>
-      <c r="B391" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>777</v>
+      </c>
+      <c r="B392" t="s">
         <v>778</v>
-      </c>
-      <c r="B392" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>779</v>
+      </c>
+      <c r="B393" t="s">
         <v>780</v>
-      </c>
-      <c r="B393" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>781</v>
+      </c>
+      <c r="B394" t="s">
         <v>782</v>
-      </c>
-      <c r="B394" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>783</v>
+      </c>
+      <c r="B395" t="s">
         <v>784</v>
-      </c>
-      <c r="B395" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>785</v>
+      </c>
+      <c r="B396" t="s">
         <v>786</v>
-      </c>
-      <c r="B396" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>787</v>
+      </c>
+      <c r="B397" t="s">
         <v>788</v>
-      </c>
-      <c r="B397" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>789</v>
+      </c>
+      <c r="B398" t="s">
         <v>790</v>
-      </c>
-      <c r="B398" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>791</v>
+      </c>
+      <c r="B399" t="s">
         <v>792</v>
-      </c>
-      <c r="B399" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>793</v>
+      </c>
+      <c r="B400" t="s">
         <v>794</v>
-      </c>
-      <c r="B400" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>795</v>
+      </c>
+      <c r="B401" t="s">
         <v>796</v>
-      </c>
-      <c r="B401" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>797</v>
+      </c>
+      <c r="B402" t="s">
         <v>798</v>
-      </c>
-      <c r="B402" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>799</v>
+      </c>
+      <c r="B403" t="s">
         <v>800</v>
-      </c>
-      <c r="B403" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>801</v>
+      </c>
+      <c r="B404" t="s">
         <v>802</v>
-      </c>
-      <c r="B404" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>803</v>
+      </c>
+      <c r="B405" t="s">
         <v>804</v>
-      </c>
-      <c r="B405" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>805</v>
+      </c>
+      <c r="B406" t="s">
         <v>806</v>
-      </c>
-      <c r="B406" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>807</v>
+      </c>
+      <c r="B407" t="s">
         <v>808</v>
-      </c>
-      <c r="B407" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>809</v>
+      </c>
+      <c r="B408" t="s">
         <v>810</v>
-      </c>
-      <c r="B408" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>811</v>
+      </c>
+      <c r="B409" t="s">
         <v>812</v>
-      </c>
-      <c r="B409" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>813</v>
+      </c>
+      <c r="B410" t="s">
         <v>814</v>
-      </c>
-      <c r="B410" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>815</v>
+      </c>
+      <c r="B411" t="s">
         <v>816</v>
-      </c>
-      <c r="B411" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>817</v>
+      </c>
+      <c r="B412" t="s">
         <v>818</v>
-      </c>
-      <c r="B412" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>819</v>
+      </c>
+      <c r="B413" t="s">
         <v>820</v>
-      </c>
-      <c r="B413" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>821</v>
+      </c>
+      <c r="B414" t="s">
         <v>822</v>
-      </c>
-      <c r="B414" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>823</v>
+      </c>
+      <c r="B415" t="s">
         <v>824</v>
-      </c>
-      <c r="B415" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>825</v>
+      </c>
+      <c r="B416" t="s">
         <v>826</v>
-      </c>
-      <c r="B416" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>827</v>
+      </c>
+      <c r="B417" t="s">
         <v>828</v>
-      </c>
-      <c r="B417" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>829</v>
+      </c>
+      <c r="B418" t="s">
         <v>830</v>
-      </c>
-      <c r="B418" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>831</v>
+      </c>
+      <c r="B419" t="s">
         <v>832</v>
-      </c>
-      <c r="B419" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>833</v>
+      </c>
+      <c r="B420" t="s">
         <v>834</v>
-      </c>
-      <c r="B420" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>835</v>
+      </c>
+      <c r="B421" t="s">
         <v>836</v>
-      </c>
-      <c r="B421" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>837</v>
+      </c>
+      <c r="B422" t="s">
         <v>838</v>
-      </c>
-      <c r="B422" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>839</v>
+      </c>
+      <c r="B423" t="s">
         <v>840</v>
-      </c>
-      <c r="B423" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>841</v>
+      </c>
+      <c r="B424" t="s">
         <v>842</v>
-      </c>
-      <c r="B424" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>843</v>
+      </c>
+      <c r="B425" t="s">
         <v>844</v>
-      </c>
-      <c r="B425" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>845</v>
+      </c>
+      <c r="B426" t="s">
         <v>846</v>
-      </c>
-      <c r="B426" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>847</v>
+      </c>
+      <c r="B427" t="s">
         <v>848</v>
-      </c>
-      <c r="B427" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>849</v>
+      </c>
+      <c r="B428" t="s">
         <v>850</v>
-      </c>
-      <c r="B428" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>851</v>
+      </c>
+      <c r="B429" t="s">
         <v>852</v>
-      </c>
-      <c r="B429" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>853</v>
+      </c>
+      <c r="B430" t="s">
         <v>854</v>
-      </c>
-      <c r="B430" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>855</v>
+      </c>
+      <c r="B431" t="s">
         <v>856</v>
-      </c>
-      <c r="B431" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>857</v>
+      </c>
+      <c r="B432" t="s">
         <v>858</v>
-      </c>
-      <c r="B432" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>859</v>
+      </c>
+      <c r="B433" t="s">
         <v>860</v>
-      </c>
-      <c r="B433" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>861</v>
+      </c>
+      <c r="B434" t="s">
         <v>862</v>
-      </c>
-      <c r="B434" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>863</v>
+      </c>
+      <c r="B435" t="s">
         <v>864</v>
-      </c>
-      <c r="B435" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>865</v>
+      </c>
+      <c r="B436" t="s">
         <v>866</v>
-      </c>
-      <c r="B436" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>867</v>
+      </c>
+      <c r="B437" t="s">
         <v>868</v>
-      </c>
-      <c r="B437" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>869</v>
+      </c>
+      <c r="B438" t="s">
         <v>870</v>
-      </c>
-      <c r="B438" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>871</v>
+      </c>
+      <c r="B439" t="s">
         <v>872</v>
-      </c>
-      <c r="B439" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>873</v>
+      </c>
+      <c r="B440" t="s">
         <v>874</v>
-      </c>
-      <c r="B440" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>875</v>
+      </c>
+      <c r="B441" t="s">
         <v>876</v>
-      </c>
-      <c r="B441" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>877</v>
+      </c>
+      <c r="B442" t="s">
         <v>878</v>
-      </c>
-      <c r="B442" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>879</v>
+      </c>
+      <c r="B443" t="s">
         <v>880</v>
-      </c>
-      <c r="B443" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>881</v>
+      </c>
+      <c r="B444" t="s">
         <v>882</v>
-      </c>
-      <c r="B444" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>883</v>
+      </c>
+      <c r="B445" t="s">
         <v>884</v>
-      </c>
-      <c r="B445" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>885</v>
+      </c>
+      <c r="B446" t="s">
         <v>886</v>
-      </c>
-      <c r="B446" t="s">
-        <v>887</v>
       </c>
     </row>
   </sheetData>
